--- a/data/trans_orig/P16A97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7228B649-59B8-4A89-A27D-33EB68426677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFED0D36-E757-4B11-882B-28C116EF7301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A67B2454-5006-407A-A773-BBCE093763A2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9B59479-3C1C-4504-A15E-FA94E43627A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="421">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,76%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,24%</t>
+    <t>98,03%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -116,19 +116,19 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1087 +140,1063 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>98,52%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -1737,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF9E49-9764-4446-84F3-6B44568F7503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CBA3A3-BE68-4A12-ADBA-F0FA8DE7C5CD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2174,10 +2150,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2186,13 +2162,13 @@
         <v>21973</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2201,13 +2177,13 @@
         <v>29860</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2198,13 @@
         <v>462909</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>361</v>
@@ -2237,13 +2213,13 @@
         <v>377700</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>800</v>
@@ -2252,13 +2228,13 @@
         <v>840608</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2290,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2326,13 +2302,13 @@
         <v>9949</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -2341,13 +2317,13 @@
         <v>37664</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -2356,13 +2332,13 @@
         <v>47613</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2353,13 @@
         <v>312845</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -2392,13 +2368,13 @@
         <v>223364</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>504</v>
@@ -2407,13 +2383,13 @@
         <v>536209</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2445,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2457,13 @@
         <v>15083</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2496,13 +2472,13 @@
         <v>30716</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2511,13 +2487,13 @@
         <v>45799</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2508,13 @@
         <v>104810</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -2547,13 +2523,13 @@
         <v>100692</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -2562,13 +2538,13 @@
         <v>205502</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2600,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2636,13 +2612,13 @@
         <v>41823</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -2651,13 +2627,13 @@
         <v>36073</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -2666,13 +2642,13 @@
         <v>77896</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2663,13 @@
         <v>83407</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -2702,13 +2678,13 @@
         <v>55860</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>140</v>
@@ -2717,13 +2693,13 @@
         <v>139267</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2767,13 @@
         <v>87458</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -2806,13 +2782,13 @@
         <v>157891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>245</v>
@@ -2821,13 +2797,13 @@
         <v>245349</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2818,13 @@
         <v>1947663</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>1364</v>
@@ -2857,7 +2833,7 @@
         <v>1399722</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>137</v>
@@ -2956,7 +2932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49044F3-91F7-4088-B9E8-438707F69B26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F13C8-6950-4D82-831D-E9A95D349FE2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3110,13 +3086,13 @@
         <v>20874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3107,13 @@
         <v>328123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -3146,13 +3122,13 @@
         <v>221087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>546</v>
@@ -3161,13 +3137,13 @@
         <v>549210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3211,13 @@
         <v>31639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3250,13 +3226,13 @@
         <v>38645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3265,13 +3241,13 @@
         <v>70284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3262,13 @@
         <v>460974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -3301,13 +3277,13 @@
         <v>253542</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -3533,7 +3509,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3688,7 +3664,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3843,7 +3819,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4175,7 +4151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C352FF-0D1E-475F-899C-AD4B71C85D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC35B1E-91CD-4644-A256-337216247814}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4314,13 +4290,13 @@
         <v>12946</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4332,10 +4308,10 @@
         <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4341,13 @@
         <v>224709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -4383,10 +4359,10 @@
         <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,10 +4433,10 @@
         <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4469,13 +4445,13 @@
         <v>22277</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4484,13 +4460,13 @@
         <v>35356</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4481,13 @@
         <v>398394</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7">
         <v>306</v>
@@ -4520,13 +4496,13 @@
         <v>296158</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -4535,13 +4511,13 @@
         <v>694552</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4585,13 @@
         <v>18728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4624,13 +4600,13 @@
         <v>52457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4639,13 +4615,13 @@
         <v>71184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4636,13 @@
         <v>424225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4675,13 +4651,13 @@
         <v>320033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -4690,13 +4666,13 @@
         <v>744258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,7 +4728,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4764,13 +4740,13 @@
         <v>45956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4779,13 +4755,13 @@
         <v>85735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -4794,13 +4770,13 @@
         <v>131692</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4791,13 @@
         <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -4830,13 +4806,13 @@
         <v>252896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -4845,13 +4821,13 @@
         <v>565563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,7 +4883,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4919,13 +4895,13 @@
         <v>43978</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -4934,13 +4910,13 @@
         <v>74176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -4949,13 +4925,13 @@
         <v>118155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4946,13 @@
         <v>166279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4985,13 +4961,13 @@
         <v>101540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -5000,13 +4976,13 @@
         <v>267818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,7 +5038,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5074,13 +5050,13 @@
         <v>119168</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -5089,13 +5065,13 @@
         <v>143071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -5104,13 +5080,13 @@
         <v>262240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5101,13 @@
         <v>76755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5140,13 +5116,13 @@
         <v>50589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5155,13 +5131,13 @@
         <v>127344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5205,13 @@
         <v>249156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>351</v>
@@ -5244,13 +5220,13 @@
         <v>390662</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>595</v>
@@ -5259,13 +5235,13 @@
         <v>639818</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5256,13 @@
         <v>1704362</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H23" s="7">
         <v>1227</v>
@@ -5295,13 +5271,13 @@
         <v>1245926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>2837</v>
@@ -5310,13 +5286,13 @@
         <v>2950287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,7 +5370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C98C57-DB3C-482F-8DB6-548C36C83CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7D79B0-A484-41BA-BDB7-D4E773D0C590}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5411,7 +5387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5518,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5533,13 +5509,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>381</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5548,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,10 +5545,10 @@
         <v>288936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5584,10 +5560,10 @@
         <v>224456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -5599,10 +5575,10 @@
         <v>513392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -5673,13 +5649,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5688,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5703,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,10 +5700,10 @@
         <v>289370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5739,10 +5715,10 @@
         <v>267832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5754,10 +5730,10 @@
         <v>557201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5828,13 +5804,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5843,13 +5819,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5858,13 +5834,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,10 +5855,10 @@
         <v>342655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -5894,10 +5870,10 @@
         <v>293303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5909,10 +5885,10 @@
         <v>635958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -5971,7 +5947,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5983,13 +5959,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5998,13 +5974,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6013,13 +5989,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,10 +6010,10 @@
         <v>384346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -6049,10 +6025,10 @@
         <v>294468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -6064,10 +6040,10 @@
         <v>678814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -6126,7 +6102,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6138,13 +6114,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6153,13 +6129,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6168,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,10 +6165,10 @@
         <v>179308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -6204,10 +6180,10 @@
         <v>147541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -6219,10 +6195,10 @@
         <v>326849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -6281,7 +6257,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6293,13 +6269,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6308,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6323,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,10 +6320,10 @@
         <v>133858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6359,10 +6335,10 @@
         <v>115310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -6374,10 +6350,10 @@
         <v>249168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -6448,13 +6424,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6463,13 +6439,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6478,13 +6454,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,10 +6475,10 @@
         <v>1618473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -6514,10 +6490,10 @@
         <v>1342908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -6529,10 +6505,10 @@
         <v>2961381</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFED0D36-E757-4B11-882B-28C116EF7301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3695F7-C055-4D1C-9BC4-37D004205BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9B59479-3C1C-4504-A15E-FA94E43627A0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD13854F-6092-4143-B80B-BD6A42539C73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="423">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,03%</t>
+    <t>98,27%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -116,19 +116,19 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,49 +191,55 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>3,39%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>96,61%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>94,5%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,55 +248,55 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,55 +305,55 @@
     <t>12,58%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,814 +362,820 @@
     <t>33,4%</t>
   </si>
   <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>32,69%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,35%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,81%</t>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>88,65%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>78,19%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1713,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CBA3A3-BE68-4A12-ADBA-F0FA8DE7C5CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB355BEC-80F7-4B9E-A720-6C1A7E424DB2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2022,13 +2028,13 @@
         <v>36215</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2049,13 @@
         <v>587848</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
@@ -2058,13 +2064,13 @@
         <v>352345</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -2073,13 +2079,13 @@
         <v>940193</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,7 +2141,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2147,13 +2153,13 @@
         <v>7886</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2162,13 +2168,13 @@
         <v>21973</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2177,13 +2183,13 @@
         <v>29860</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2204,13 @@
         <v>462909</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>361</v>
@@ -2770,10 +2776,10 @@
         <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -2782,13 +2788,13 @@
         <v>157891</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>245</v>
@@ -2797,13 +2803,13 @@
         <v>245349</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2824,13 @@
         <v>1947663</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7">
         <v>1364</v>
@@ -2833,13 +2839,13 @@
         <v>1399722</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>3242</v>
@@ -2848,13 +2854,13 @@
         <v>3347385</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2916,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +2938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F13C8-6950-4D82-831D-E9A95D349FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2A39C7-1BE6-45A8-82F1-A7FCC558B525}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2949,7 +2955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3056,13 +3062,13 @@
         <v>7855</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3071,13 +3077,13 @@
         <v>13019</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3086,13 +3092,13 @@
         <v>20874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3113,13 @@
         <v>328123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -3122,13 +3128,13 @@
         <v>221087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>546</v>
@@ -3137,13 +3143,13 @@
         <v>549210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3217,13 @@
         <v>31639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3226,13 +3232,13 @@
         <v>38645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3241,13 +3247,13 @@
         <v>70284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3268,13 @@
         <v>460974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -3277,13 +3283,13 @@
         <v>253542</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -3292,13 +3298,13 @@
         <v>714515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3360,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3366,13 +3372,13 @@
         <v>35266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -3381,13 +3387,13 @@
         <v>62307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3396,13 +3402,13 @@
         <v>97573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3423,13 @@
         <v>427255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3432,13 +3438,13 @@
         <v>278299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>671</v>
@@ -3447,13 +3453,13 @@
         <v>705553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3527,13 @@
         <v>45934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -3536,13 +3542,13 @@
         <v>109876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -3551,13 +3557,13 @@
         <v>155810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3578,13 @@
         <v>322676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3587,13 +3593,13 @@
         <v>189082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>448</v>
@@ -3602,13 +3608,13 @@
         <v>511758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3682,13 @@
         <v>69409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -3691,13 +3697,13 @@
         <v>116588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3706,13 +3712,13 @@
         <v>185997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3733,13 @@
         <v>106017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3742,13 +3748,13 @@
         <v>76074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -3757,13 +3763,13 @@
         <v>182091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3837,13 @@
         <v>172458</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -3846,13 +3852,13 @@
         <v>234362</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>373</v>
@@ -3861,13 +3867,13 @@
         <v>406820</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3888,13 @@
         <v>51727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -3897,13 +3903,13 @@
         <v>40554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -3912,13 +3918,13 @@
         <v>92281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3992,13 @@
         <v>362561</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>529</v>
@@ -4001,13 +4007,13 @@
         <v>574797</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>865</v>
@@ -4016,13 +4022,13 @@
         <v>937358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4043,13 @@
         <v>1696771</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>984</v>
@@ -4052,13 +4058,13 @@
         <v>1058637</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>2602</v>
@@ -4067,13 +4073,13 @@
         <v>2755408</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,7 +4135,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4151,7 +4157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC35B1E-91CD-4644-A256-337216247814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502806C0-1C1E-44D4-A240-2063B84473A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4168,7 +4174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4275,13 +4281,13 @@
         <v>8245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4290,13 +4296,13 @@
         <v>12946</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4305,13 +4311,13 @@
         <v>21191</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4332,13 @@
         <v>326043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4341,13 +4347,13 @@
         <v>224709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -4356,13 +4362,13 @@
         <v>550752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4436,13 @@
         <v>13079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4445,13 +4451,13 @@
         <v>22277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4460,13 +4466,13 @@
         <v>35356</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4487,13 @@
         <v>398394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
         <v>306</v>
@@ -4496,13 +4502,13 @@
         <v>296158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -4511,13 +4517,13 @@
         <v>694552</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,7 +4579,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4585,13 +4591,13 @@
         <v>18728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4600,13 +4606,13 @@
         <v>52457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4615,13 +4621,13 @@
         <v>71184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4642,13 @@
         <v>424225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>299</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4651,13 +4657,13 @@
         <v>320033</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -4666,13 +4672,13 @@
         <v>744258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4746,13 @@
         <v>45956</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4755,13 +4761,13 @@
         <v>85735</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -4770,13 +4776,13 @@
         <v>131692</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4797,13 @@
         <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -4806,13 +4812,13 @@
         <v>252896</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -4821,13 +4827,13 @@
         <v>565563</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4901,13 @@
         <v>43978</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -4910,13 +4916,13 @@
         <v>74176</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -4925,13 +4931,13 @@
         <v>118155</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4952,13 @@
         <v>166279</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4961,13 +4967,13 @@
         <v>101540</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -4976,13 +4982,13 @@
         <v>267818</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5056,13 @@
         <v>119168</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -5065,13 +5071,13 @@
         <v>143071</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -5080,13 +5086,13 @@
         <v>262240</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5107,13 @@
         <v>76755</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5116,13 +5122,13 @@
         <v>50589</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5131,13 +5137,13 @@
         <v>127344</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5211,13 @@
         <v>249156</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>351</v>
@@ -5220,13 +5226,13 @@
         <v>390662</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>595</v>
@@ -5259,10 +5265,10 @@
         <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>1227</v>
@@ -5271,13 +5277,13 @@
         <v>1245926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>2837</v>
@@ -5286,13 +5292,13 @@
         <v>2950287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,7 +5354,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7D79B0-A484-41BA-BDB7-D4E773D0C590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C3F14D-80E5-4CD3-8978-3FA5551BF57C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5387,7 +5393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5494,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5509,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5524,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,10 +5551,10 @@
         <v>288936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5560,10 +5566,10 @@
         <v>224456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -5575,10 +5581,10 @@
         <v>513392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -5649,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5664,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5679,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,10 +5706,10 @@
         <v>289370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5715,10 +5721,10 @@
         <v>267832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5730,10 +5736,10 @@
         <v>557201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5792,7 +5798,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5804,13 +5810,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5819,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5834,13 +5840,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,10 +5861,10 @@
         <v>342655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -5870,10 +5876,10 @@
         <v>293303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5885,10 +5891,10 @@
         <v>635958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -5959,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5974,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5989,13 +5995,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,10 +6016,10 @@
         <v>384346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -6025,10 +6031,10 @@
         <v>294468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -6040,10 +6046,10 @@
         <v>678814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -6114,13 +6120,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6129,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6144,13 +6150,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,10 +6171,10 @@
         <v>179308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -6180,10 +6186,10 @@
         <v>147541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -6195,10 +6201,10 @@
         <v>326849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -6269,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6284,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6299,13 +6305,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,10 +6326,10 @@
         <v>133858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6335,10 +6341,10 @@
         <v>115310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -6350,10 +6356,10 @@
         <v>249168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -6424,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6439,13 +6445,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6454,13 +6460,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,10 +6481,10 @@
         <v>1618473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -6490,10 +6496,10 @@
         <v>1342908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -6505,10 +6511,10 @@
         <v>2961381</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3695F7-C055-4D1C-9BC4-37D004205BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D3D60D-DFCE-40FE-B79F-0102C0A1306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD13854F-6092-4143-B80B-BD6A42539C73}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F408E36D-0A30-4939-BD02-FEE8642517C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="429">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -89,100 +89,106 @@
     <t>0,67%</t>
   </si>
   <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -191,55 +197,55 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>94,5%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,55 +254,55 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,520 +311,538 @@
     <t>12,58%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>13,68%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
   <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>39,57%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>60,51%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>60,43%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>39,49%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
@@ -827,355 +851,355 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>6,81%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>96,54%</t>
+    <t>93,19%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>7,12%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>92,88%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>25,32%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>74,68%</t>
   </si>
   <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>42,21%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>79,08%</t>
   </si>
   <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>57,79%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>32,69%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1190,9 +1214,6 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
     <t>0,74%</t>
   </si>
   <si>
@@ -1200,9 +1221,6 @@
   </si>
   <si>
     <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -1719,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB355BEC-80F7-4B9E-A720-6C1A7E424DB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183997B8-EA07-4238-A488-7B28DC577E46}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2028,13 +2046,13 @@
         <v>36215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2067,13 @@
         <v>587848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
@@ -2064,13 +2082,13 @@
         <v>352345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -2079,13 +2097,13 @@
         <v>940193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2159,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2153,13 +2171,13 @@
         <v>7886</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2168,13 +2186,13 @@
         <v>21973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2183,13 +2201,13 @@
         <v>29860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2222,13 @@
         <v>462909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>361</v>
@@ -2219,13 +2237,13 @@
         <v>377700</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>800</v>
@@ -2234,13 +2252,13 @@
         <v>840608</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,7 +2314,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2308,13 +2326,13 @@
         <v>9949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -2323,13 +2341,13 @@
         <v>37664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -2338,13 +2356,13 @@
         <v>47613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2377,13 @@
         <v>312845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -2374,13 +2392,13 @@
         <v>223364</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>504</v>
@@ -2389,13 +2407,13 @@
         <v>536209</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,7 +2469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2481,13 @@
         <v>15083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2478,13 +2496,13 @@
         <v>30716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2493,13 +2511,13 @@
         <v>45799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2532,13 @@
         <v>104810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -2529,13 +2547,13 @@
         <v>100692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -2544,13 +2562,13 @@
         <v>205502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2624,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2618,13 +2636,13 @@
         <v>41823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -2633,13 +2651,13 @@
         <v>36073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -2648,13 +2666,13 @@
         <v>77896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2687,13 @@
         <v>83407</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -2684,13 +2702,13 @@
         <v>55860</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>140</v>
@@ -2699,13 +2717,13 @@
         <v>139267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2791,13 @@
         <v>87458</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -2788,13 +2806,13 @@
         <v>157891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>245</v>
@@ -2803,13 +2821,13 @@
         <v>245349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2842,13 @@
         <v>1947663</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>1364</v>
@@ -2839,13 +2857,13 @@
         <v>1399722</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>3242</v>
@@ -2854,13 +2872,13 @@
         <v>3347385</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,7 +2934,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +2956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2A39C7-1BE6-45A8-82F1-A7FCC558B525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAC8D7E-DCD2-48BE-831D-3535BF004193}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2955,7 +2973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3062,13 +3080,13 @@
         <v>7855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3077,13 +3095,13 @@
         <v>13019</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3092,13 +3110,13 @@
         <v>20874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3131,13 @@
         <v>328123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -3128,13 +3146,13 @@
         <v>221087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>546</v>
@@ -3143,13 +3161,13 @@
         <v>549210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3235,13 @@
         <v>31639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3232,13 +3250,13 @@
         <v>38645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3247,13 +3265,13 @@
         <v>70284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3286,13 @@
         <v>460974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -3283,13 +3301,13 @@
         <v>253542</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -3298,13 +3316,13 @@
         <v>714515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3378,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3372,13 +3390,13 @@
         <v>35266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -3387,13 +3405,13 @@
         <v>62307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3402,13 +3420,13 @@
         <v>97573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3441,13 @@
         <v>427255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3438,13 +3456,13 @@
         <v>278299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>671</v>
@@ -3453,13 +3471,13 @@
         <v>705553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,7 +3533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3527,13 +3545,13 @@
         <v>45934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -3542,13 +3560,13 @@
         <v>109876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -3557,13 +3575,13 @@
         <v>155810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3596,13 @@
         <v>322676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3593,13 +3611,13 @@
         <v>189082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>448</v>
@@ -3608,13 +3626,13 @@
         <v>511758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,7 +3688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3682,13 +3700,13 @@
         <v>69409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -3697,13 +3715,13 @@
         <v>116588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3712,13 +3730,13 @@
         <v>185997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3751,13 @@
         <v>106017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3748,13 +3766,13 @@
         <v>76074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -3763,13 +3781,13 @@
         <v>182091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3837,13 +3855,13 @@
         <v>172458</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -3852,13 +3870,13 @@
         <v>234362</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>373</v>
@@ -3867,13 +3885,13 @@
         <v>406820</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3906,13 @@
         <v>51727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -3903,13 +3921,13 @@
         <v>40554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -3918,13 +3936,13 @@
         <v>92281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4010,13 @@
         <v>362561</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>529</v>
@@ -4007,13 +4025,13 @@
         <v>574797</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>865</v>
@@ -4022,13 +4040,13 @@
         <v>937358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4061,13 @@
         <v>1696771</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>984</v>
@@ -4058,13 +4076,13 @@
         <v>1058637</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>2602</v>
@@ -4073,13 +4091,13 @@
         <v>2755408</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4153,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4157,7 +4175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502806C0-1C1E-44D4-A240-2063B84473A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCC941-57E1-401D-B21C-513055FEC01D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4174,7 +4192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4281,13 +4299,13 @@
         <v>8245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4296,13 +4314,13 @@
         <v>12946</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4311,13 +4329,13 @@
         <v>21191</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4350,13 @@
         <v>326043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4347,13 +4365,13 @@
         <v>224709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -4362,13 +4380,13 @@
         <v>550752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4454,13 @@
         <v>13079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4451,13 +4469,13 @@
         <v>22277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4466,13 +4484,13 @@
         <v>35356</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>282</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4505,13 @@
         <v>398394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>306</v>
@@ -4502,13 +4520,13 @@
         <v>296158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -4517,13 +4535,13 @@
         <v>694552</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,7 +4597,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4591,13 +4609,13 @@
         <v>18728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4606,13 +4624,13 @@
         <v>52457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4621,13 +4639,13 @@
         <v>71184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4660,13 @@
         <v>424225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4657,13 +4675,13 @@
         <v>320033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -4672,13 +4690,13 @@
         <v>744258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,7 +4752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4746,13 +4764,13 @@
         <v>45956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4761,13 +4779,13 @@
         <v>85735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -4776,13 +4794,13 @@
         <v>131692</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4815,13 @@
         <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -4812,13 +4830,13 @@
         <v>252896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -4827,13 +4845,13 @@
         <v>565563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,7 +4907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4901,13 +4919,13 @@
         <v>43978</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -4916,13 +4934,13 @@
         <v>74176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -4931,13 +4949,13 @@
         <v>118155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4970,13 @@
         <v>166279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4967,13 +4985,13 @@
         <v>101540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -4982,13 +5000,13 @@
         <v>267818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,7 +5062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5056,13 +5074,13 @@
         <v>119168</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -5071,13 +5089,13 @@
         <v>143071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -5086,13 +5104,13 @@
         <v>262240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5125,13 @@
         <v>76755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5122,13 +5140,13 @@
         <v>50589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5137,13 +5155,13 @@
         <v>127344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5229,13 @@
         <v>249156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>351</v>
@@ -5226,13 +5244,13 @@
         <v>390662</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>595</v>
@@ -5241,13 +5259,13 @@
         <v>639818</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5280,13 @@
         <v>1704362</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>1227</v>
@@ -5277,13 +5295,13 @@
         <v>1245926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>2837</v>
@@ -5292,13 +5310,13 @@
         <v>2950287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,7 +5372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +5394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C3F14D-80E5-4CD3-8978-3FA5551BF57C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46F59C9-9B25-4458-94AB-374C95B60C18}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5393,7 +5411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5500,13 +5518,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5515,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5530,13 +5548,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,10 +5569,10 @@
         <v>288936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5566,10 +5584,10 @@
         <v>224456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -5581,10 +5599,10 @@
         <v>513392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -5655,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5670,13 +5688,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5685,13 +5703,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,10 +5724,10 @@
         <v>289370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5721,10 +5739,10 @@
         <v>267832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5736,10 +5754,10 @@
         <v>557201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5798,7 +5816,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5810,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5825,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5840,13 +5858,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,10 +5879,10 @@
         <v>342655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -5876,10 +5894,10 @@
         <v>293303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5891,10 +5909,10 @@
         <v>635958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -5953,7 +5971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5965,13 +5983,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5980,13 +5998,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5995,13 +6013,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,10 +6034,10 @@
         <v>384346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -6031,10 +6049,10 @@
         <v>294468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -6046,10 +6064,10 @@
         <v>678814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -6108,7 +6126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6120,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6135,13 +6153,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6150,13 +6168,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,10 +6189,10 @@
         <v>179308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -6186,10 +6204,10 @@
         <v>147541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -6201,10 +6219,10 @@
         <v>326849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -6263,7 +6281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6275,13 +6293,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6290,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6305,13 +6323,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,10 +6344,10 @@
         <v>133858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6341,10 +6359,10 @@
         <v>115310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -6356,10 +6374,10 @@
         <v>249168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -6430,13 +6448,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6445,13 +6463,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6460,13 +6478,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,10 +6499,10 @@
         <v>1618473</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -6496,10 +6514,10 @@
         <v>1342908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -6511,10 +6529,10 @@
         <v>2961381</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -6573,7 +6591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D3D60D-DFCE-40FE-B79F-0102C0A1306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AD3F64-9D80-4449-964D-8917B246B1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F408E36D-0A30-4939-BD02-FEE8642517C0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00132858-2D4F-4585-9D76-FFE0BCCD2139}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="490">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,69%</t>
@@ -191,7 +191,7 @@
     <t>97,41%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -248,7 +248,7 @@
     <t>97,59%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,08%</t>
@@ -305,7 +305,7 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>12,58%</t>
@@ -362,61 +362,118 @@
     <t>86,22%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
   </si>
   <si>
     <t>4,3%</t>
@@ -737,58 +794,112 @@
     <t>54,76%</t>
   </si>
   <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>17,61%</t>
@@ -1094,58 +1205,112 @@
     <t>74,05%</t>
   </si>
   <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>12,75%</t>
@@ -1292,22 +1457,40 @@
     <t>99,57%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -1737,8 +1920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183997B8-EA07-4238-A488-7B28DC577E46}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE72B0F1-E9B8-453B-87DB-99D5B491976A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2630,10 +2813,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>41823</v>
+        <v>26795</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2645,10 +2828,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>36073</v>
+        <v>21270</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2660,10 +2843,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N19" s="7">
-        <v>77896</v>
+        <v>48064</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2681,10 +2864,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2696,10 +2879,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2711,10 +2894,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2732,10 +2915,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7">
-        <v>125230</v>
+        <v>87889</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2747,10 +2930,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="I21" s="7">
-        <v>91933</v>
+        <v>54831</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2762,10 +2945,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="N21" s="7">
-        <v>217163</v>
+        <v>142719</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2779,55 +2962,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>87458</v>
+        <v>15028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>157891</v>
+        <v>14803</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="N22" s="7">
-        <v>245349</v>
+        <v>29832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,49 +3019,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1878</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>1947663</v>
+        <v>22313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1364</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>1399722</v>
+        <v>22299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3242</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>3347385</v>
+        <v>44612</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,63 +3070,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7">
+        <v>37341</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>32</v>
+      </c>
+      <c r="I24" s="7">
+        <v>37102</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>71</v>
+      </c>
+      <c r="N24" s="7">
+        <v>74444</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7">
+        <v>87458</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>158</v>
+      </c>
+      <c r="I25" s="7">
+        <v>157891</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="7">
+        <v>245</v>
+      </c>
+      <c r="N25" s="7">
+        <v>245349</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1878</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1947663</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1364</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1399722</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3242</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3347385</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1965</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2035121</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1522</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1557613</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3487</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3592734</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2956,8 +3295,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAC8D7E-DCD2-48BE-831D-3535BF004193}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A380C-3061-48C8-8C95-068950F5DCBA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2973,7 +3312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3080,13 +3419,13 @@
         <v>7855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3095,13 +3434,13 @@
         <v>13019</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3113,10 +3452,10 @@
         <v>55</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3470,13 @@
         <v>328123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -3146,13 +3485,13 @@
         <v>221087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>546</v>
@@ -3164,10 +3503,10 @@
         <v>65</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3574,13 @@
         <v>31639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3250,13 +3589,13 @@
         <v>38645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3265,13 +3604,13 @@
         <v>70284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3625,13 @@
         <v>460974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -3301,13 +3640,13 @@
         <v>253542</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -3316,13 +3655,13 @@
         <v>714515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3729,13 @@
         <v>35266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -3405,13 +3744,13 @@
         <v>62307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3420,13 +3759,13 @@
         <v>97573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3780,13 @@
         <v>427255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3456,13 +3795,13 @@
         <v>278299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>671</v>
@@ -3471,13 +3810,13 @@
         <v>705553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3884,13 @@
         <v>45934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -3560,13 +3899,13 @@
         <v>109876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -3575,13 +3914,13 @@
         <v>155810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3935,13 @@
         <v>322676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3611,13 +3950,13 @@
         <v>189082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>448</v>
@@ -3626,13 +3965,13 @@
         <v>511758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +4039,13 @@
         <v>69409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -3715,13 +4054,13 @@
         <v>116588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3730,13 +4069,13 @@
         <v>185997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +4090,13 @@
         <v>106017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3766,13 +4105,13 @@
         <v>76074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -3781,13 +4120,13 @@
         <v>182091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,49 +4188,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D19" s="7">
-        <v>172458</v>
+        <v>85850</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="I19" s="7">
-        <v>234362</v>
+        <v>96842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>373</v>
+        <v>172</v>
       </c>
       <c r="N19" s="7">
-        <v>406820</v>
+        <v>182692</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,49 +4239,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>51727</v>
+        <v>35400</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>40554</v>
+        <v>28395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>92281</v>
+        <v>63795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,10 +4290,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="D21" s="7">
-        <v>224185</v>
+        <v>121250</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3966,10 +4305,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="I21" s="7">
-        <v>274916</v>
+        <v>125237</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3981,10 +4320,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>458</v>
+        <v>232</v>
       </c>
       <c r="N21" s="7">
-        <v>499101</v>
+        <v>246487</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3998,55 +4337,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>362561</v>
+        <v>86608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>529</v>
+        <v>124</v>
       </c>
       <c r="I22" s="7">
-        <v>574797</v>
+        <v>137520</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>865</v>
+        <v>201</v>
       </c>
       <c r="N22" s="7">
-        <v>937358</v>
+        <v>224128</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,49 +4394,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1618</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>1696771</v>
+        <v>16327</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>984</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>1058637</v>
+        <v>12159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>2602</v>
+        <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>2755408</v>
+        <v>28486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,63 +4445,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7">
+        <v>102935</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>134</v>
+      </c>
+      <c r="I24" s="7">
+        <v>149679</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>226</v>
+      </c>
+      <c r="N24" s="7">
+        <v>252614</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>336</v>
+      </c>
+      <c r="D25" s="7">
+        <v>362561</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>529</v>
+      </c>
+      <c r="I25" s="7">
+        <v>574797</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>865</v>
+      </c>
+      <c r="N25" s="7">
+        <v>937358</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1618</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1696771</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>984</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1058637</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2602</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2755408</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1954</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2059332</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1513</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1633434</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3467</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3692766</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4175,8 +4670,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCC941-57E1-401D-B21C-513055FEC01D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE9D539-E08E-403C-92C1-5778ECD18B57}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4192,7 +4687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4299,13 +4794,13 @@
         <v>8245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4314,13 +4809,13 @@
         <v>12946</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4335,7 +4830,7 @@
         <v>58</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4845,13 @@
         <v>326043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4365,13 +4860,13 @@
         <v>224709</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>538</v>
@@ -4383,7 +4878,7 @@
         <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>68</v>
@@ -4454,13 +4949,13 @@
         <v>13079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4469,13 +4964,13 @@
         <v>22277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4484,13 +4979,13 @@
         <v>35356</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +5000,13 @@
         <v>398394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>306</v>
@@ -4520,13 +5015,13 @@
         <v>296158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
@@ -4535,10 +5030,10 @@
         <v>694552</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>66</v>
@@ -4609,13 +5104,13 @@
         <v>18728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4624,13 +5119,13 @@
         <v>52457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4639,13 +5134,13 @@
         <v>71184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +5155,13 @@
         <v>424225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4675,13 +5170,13 @@
         <v>320033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -4690,13 +5185,13 @@
         <v>744258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +5259,13 @@
         <v>45956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4779,13 +5274,13 @@
         <v>85735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -4794,13 +5289,13 @@
         <v>131692</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +5310,13 @@
         <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -4830,13 +5325,13 @@
         <v>252896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -4845,13 +5340,13 @@
         <v>565563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +5414,13 @@
         <v>43978</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -4934,13 +5429,13 @@
         <v>74176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -4949,13 +5444,13 @@
         <v>118155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +5465,13 @@
         <v>166279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4985,13 +5480,13 @@
         <v>101540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -5000,13 +5495,13 @@
         <v>267818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,49 +5563,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7">
-        <v>119168</v>
+        <v>67189</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>143071</v>
+        <v>66995</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c r="N19" s="7">
-        <v>262240</v>
+        <v>134184</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +5614,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>50589</v>
+        <v>31343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,10 +5665,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>195923</v>
+        <v>120919</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5185,10 +5680,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="I21" s="7">
-        <v>193660</v>
+        <v>98338</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5200,10 +5695,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>365</v>
+        <v>206</v>
       </c>
       <c r="N21" s="7">
-        <v>389584</v>
+        <v>219257</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5217,55 +5712,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7">
-        <v>249156</v>
+        <v>51979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
-        <v>351</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>390662</v>
+        <v>76076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
-        <v>595</v>
+        <v>117</v>
       </c>
       <c r="N22" s="7">
-        <v>639818</v>
+        <v>128055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +5769,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1610</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>1704362</v>
+        <v>23025</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>1227</v>
+        <v>15</v>
       </c>
       <c r="I23" s="7">
-        <v>1245926</v>
+        <v>19246</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>2837</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>2950287</v>
+        <v>42271</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,63 +5820,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7">
+        <v>75004</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>72</v>
+      </c>
+      <c r="I24" s="7">
+        <v>95322</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>159</v>
+      </c>
+      <c r="N24" s="7">
+        <v>170326</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>244</v>
+      </c>
+      <c r="D25" s="7">
+        <v>249156</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>351</v>
+      </c>
+      <c r="I25" s="7">
+        <v>390662</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>595</v>
+      </c>
+      <c r="N25" s="7">
+        <v>639818</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1610</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1704361</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1227</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1245926</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2837</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2950287</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1854</v>
       </c>
-      <c r="D24" s="7">
-        <v>1953518</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1953517</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1578</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1636588</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3432</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3590105</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5394,8 +6045,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46F59C9-9B25-4458-94AB-374C95B60C18}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D1FED9-2CC8-44F6-8DB8-C344E60C4067}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5411,7 +6062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5518,13 +6169,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5533,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>71</v>
@@ -5548,13 +6199,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +6217,13 @@
         <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>288936</v>
+        <v>300074</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5581,10 +6232,10 @@
         <v>129</v>
       </c>
       <c r="I5" s="7">
-        <v>224456</v>
+        <v>195744</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>81</v>
@@ -5596,13 +6247,13 @@
         <v>260</v>
       </c>
       <c r="N5" s="7">
-        <v>513392</v>
+        <v>495818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -5617,7 +6268,7 @@
         <v>131</v>
       </c>
       <c r="D6" s="7">
-        <v>288936</v>
+        <v>300074</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5632,7 +6283,7 @@
         <v>129</v>
       </c>
       <c r="I6" s="7">
-        <v>224456</v>
+        <v>195744</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5647,7 +6298,7 @@
         <v>260</v>
       </c>
       <c r="N6" s="7">
-        <v>513392</v>
+        <v>495818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5673,13 +6324,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5688,13 +6339,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5703,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +6372,13 @@
         <v>206</v>
       </c>
       <c r="D8" s="7">
-        <v>289370</v>
+        <v>279893</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5736,13 +6387,13 @@
         <v>260</v>
       </c>
       <c r="I8" s="7">
-        <v>267832</v>
+        <v>239512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5751,13 +6402,13 @@
         <v>466</v>
       </c>
       <c r="N8" s="7">
-        <v>557201</v>
+        <v>519405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -5772,7 +6423,7 @@
         <v>206</v>
       </c>
       <c r="D9" s="7">
-        <v>289370</v>
+        <v>279893</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5787,7 +6438,7 @@
         <v>260</v>
       </c>
       <c r="I9" s="7">
-        <v>267832</v>
+        <v>239512</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5802,7 +6453,7 @@
         <v>466</v>
       </c>
       <c r="N9" s="7">
-        <v>557201</v>
+        <v>519405</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5828,13 +6479,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5843,13 +6494,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5858,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +6527,13 @@
         <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>342655</v>
+        <v>326029</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -5891,13 +6542,13 @@
         <v>413</v>
       </c>
       <c r="I11" s="7">
-        <v>293303</v>
+        <v>269599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5906,13 +6557,13 @@
         <v>750</v>
       </c>
       <c r="N11" s="7">
-        <v>635958</v>
+        <v>595628</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -5927,7 +6578,7 @@
         <v>337</v>
       </c>
       <c r="D12" s="7">
-        <v>342655</v>
+        <v>326029</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5942,7 +6593,7 @@
         <v>413</v>
       </c>
       <c r="I12" s="7">
-        <v>293303</v>
+        <v>269599</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5957,7 +6608,7 @@
         <v>750</v>
       </c>
       <c r="N12" s="7">
-        <v>635958</v>
+        <v>595628</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5983,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5998,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6013,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6682,13 @@
         <v>331</v>
       </c>
       <c r="D14" s="7">
-        <v>384346</v>
+        <v>560562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -6046,13 +6697,13 @@
         <v>438</v>
       </c>
       <c r="I14" s="7">
-        <v>294468</v>
+        <v>292698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -6061,13 +6712,13 @@
         <v>769</v>
       </c>
       <c r="N14" s="7">
-        <v>678814</v>
+        <v>853259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -6082,7 +6733,7 @@
         <v>331</v>
       </c>
       <c r="D15" s="7">
-        <v>384346</v>
+        <v>560562</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6097,7 +6748,7 @@
         <v>438</v>
       </c>
       <c r="I15" s="7">
-        <v>294468</v>
+        <v>292698</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6112,7 +6763,7 @@
         <v>769</v>
       </c>
       <c r="N15" s="7">
-        <v>678814</v>
+        <v>853259</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6138,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6153,13 +6804,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6168,13 +6819,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6837,13 @@
         <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>179308</v>
+        <v>163831</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -6201,13 +6852,13 @@
         <v>250</v>
       </c>
       <c r="I17" s="7">
-        <v>147541</v>
+        <v>135048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -6216,13 +6867,13 @@
         <v>447</v>
       </c>
       <c r="N17" s="7">
-        <v>326849</v>
+        <v>298879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -6237,7 +6888,7 @@
         <v>197</v>
       </c>
       <c r="D18" s="7">
-        <v>179308</v>
+        <v>163831</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6252,7 +6903,7 @@
         <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>147541</v>
+        <v>135048</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6267,7 +6918,7 @@
         <v>447</v>
       </c>
       <c r="N18" s="7">
-        <v>326849</v>
+        <v>298879</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6293,13 +6944,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6308,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6323,13 +6974,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,46 +6989,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7">
-        <v>133858</v>
+        <v>85295</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="I20" s="7">
-        <v>115310</v>
+        <v>67907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="N20" s="7">
-        <v>249168</v>
+        <v>153202</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -6389,10 +7040,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D21" s="7">
-        <v>133858</v>
+        <v>85295</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6404,10 +7055,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="I21" s="7">
-        <v>115310</v>
+        <v>67907</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6419,10 +7070,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="N21" s="7">
-        <v>249168</v>
+        <v>153202</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6436,7 +7087,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6448,13 +7099,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6463,13 +7114,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6478,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,46 +7144,46 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1388</v>
+        <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>1618473</v>
+        <v>38506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>1694</v>
+        <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>1342908</v>
+        <v>35139</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>3082</v>
+        <v>123</v>
       </c>
       <c r="N23" s="7">
-        <v>2961381</v>
+        <v>73646</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -6544,63 +7195,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>56</v>
+      </c>
+      <c r="D24" s="7">
+        <v>38506</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>67</v>
+      </c>
+      <c r="I24" s="7">
+        <v>35139</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>123</v>
+      </c>
+      <c r="N24" s="7">
+        <v>73646</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
         <v>1388</v>
       </c>
-      <c r="D24" s="7">
-        <v>1618473</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D26" s="7">
+        <v>1754190</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="7">
         <v>1694</v>
       </c>
-      <c r="I24" s="7">
-        <v>1342908</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I26" s="7">
+        <v>1235646</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="7">
         <v>3082</v>
       </c>
-      <c r="N24" s="7">
-        <v>2961381</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N26" s="7">
+        <v>2989837</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1388</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1754190</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1694</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1235646</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3082</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2989837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
